--- a/data/trans_camb/P16A01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 4,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; 1,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 1,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 4,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 3,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 4,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 3,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 1,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 2,55</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,42%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,43; 60,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,97; 24,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,8; 25,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 80,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,9; 76,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,8; 89,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,18; 55,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,16; 29,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,26; 37,79</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,94; 4,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 3,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 2,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 4,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 4,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 3,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,52; 4,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 3,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 2,14</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,91%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,93; 91,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,44; 72,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,57; 43,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,3; 91,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,75; 86,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,0; 61,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,74; 76,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,86; 69,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,11; 42,16</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 7,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 4,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 5,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,8; 1,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,62; 2,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,97; 0,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 3,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 2,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 2,03</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,16%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; 149,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,8; 85,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,31; 97,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,3; 26,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,74; 36,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,9; 9,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,81; 57,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,11; 35,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,89; 31,27</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 4,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 2,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 1,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 3,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 3,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 2,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 3,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 2,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 1,46</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,41%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,7; 63,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,37; 35,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,99; 22,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,67; 55,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,02; 56,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 39,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,14; 49,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 33,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,11; 23,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,97</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,97</t>
+          <t>-3,69; 2,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 4,26</t>
+          <t>0,33; 4,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,55</t>
+          <t>-0,55; 2,77</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>-6,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>13,26%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,8; 25,06</t>
+          <t>-35,18; 30,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 89,98</t>
+          <t>4,78; 90,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 37,79</t>
+          <t>-6,87; 40,76</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,15</t>
+          <t>-1,99; 1,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,22</t>
+          <t>-1,48; 2,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 2,14</t>
+          <t>-1,24; 1,63</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>-1,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>5,65%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 43,54</t>
+          <t>-31,2; 31,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 61,79</t>
+          <t>-21,9; 51,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 42,16</t>
+          <t>-19,3; 30,31</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,15</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 5,0</t>
+          <t>-1,09; 5,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 0,61</t>
+          <t>-5,79; 0,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,03</t>
+          <t>-2,2; 2,37</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,93%</t>
+          <t>-23,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,16%</t>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 97,51</t>
+          <t>-13,8; 104,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,9; 9,2</t>
+          <t>-48,51; 12,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 31,27</t>
+          <t>-23,84; 35,68</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,38</t>
+          <t>-2,03; 1,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,26</t>
+          <t>-0,83; 1,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,46</t>
+          <t>-0,92; 1,13</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>3,28%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 22,46</t>
+          <t>-27,58; 17,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 39,72</t>
+          <t>-12,19; 34,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 23,45</t>
+          <t>-13,1; 17,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 4,79</t>
+          <t>-0,66; 5,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,91</t>
+          <t>-3,53; 1,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,49</t>
+          <t>-3,25; 2,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,08</t>
+          <t>0,06; 3,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,74</t>
+          <t>-0,76; 3,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,26</t>
+          <t>0,48; 4,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,54</t>
+          <t>0,35; 3,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,97</t>
+          <t>-1,34; 2,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,77</t>
+          <t>-0,78; 2,62</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 60,94</t>
+          <t>-6,73; 61,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 24,01</t>
+          <t>-34,6; 25,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 30,09</t>
+          <t>-31,99; 33,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 80,85</t>
+          <t>1,19; 79,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 76,09</t>
+          <t>-11,55; 72,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 90,16</t>
+          <t>6,58; 87,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 55,88</t>
+          <t>4,1; 55,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 29,94</t>
+          <t>-16,98; 30,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 40,76</t>
+          <t>-10,22; 38,62</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,49</t>
+          <t>1,0; 4,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,55</t>
+          <t>0,31; 3,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,66</t>
+          <t>-2,42; 1,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,64</t>
+          <t>1,1; 4,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,55</t>
+          <t>1,07; 4,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,69</t>
+          <t>-1,51; 2,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,04</t>
+          <t>1,65; 4,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,58</t>
+          <t>1,09; 3,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,63</t>
+          <t>-1,25; 1,55</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,93; 91,32</t>
+          <t>14,7; 90,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 72,68</t>
+          <t>3,93; 73,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 31,66</t>
+          <t>-36,25; 29,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,3; 91,02</t>
+          <t>15,62; 91,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 86,76</t>
+          <t>14,07; 89,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 51,09</t>
+          <t>-20,31; 54,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,74; 76,29</t>
+          <t>23,77; 78,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,86; 69,77</t>
+          <t>16,39; 67,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 30,31</t>
+          <t>-19,53; 28,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 7,8</t>
+          <t>-0,26; 7,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 4,3</t>
+          <t>-2,21; 4,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 5,41</t>
+          <t>-0,91; 5,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 1,8</t>
+          <t>-5,44; 2,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 2,6</t>
+          <t>-4,72; 2,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 0,85</t>
+          <t>-5,33; 0,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,74</t>
+          <t>-1,48; 3,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,37</t>
+          <t>-2,48; 2,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,37</t>
+          <t>-2,1; 2,65</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 149,95</t>
+          <t>-4,04; 152,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 85,3</t>
+          <t>-29,36; 90,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 104,94</t>
+          <t>-14,16; 112,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,3; 26,66</t>
+          <t>-46,83; 29,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 36,24</t>
+          <t>-40,95; 35,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,51; 12,89</t>
+          <t>-45,71; 12,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 57,2</t>
+          <t>-18,44; 60,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 35,11</t>
+          <t>-27,8; 37,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 35,68</t>
+          <t>-23,83; 41,29</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,01</t>
+          <t>1,19; 3,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 2,19</t>
+          <t>-0,37; 2,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 1,16</t>
+          <t>-1,95; 1,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,21</t>
+          <t>0,65; 3,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,25</t>
+          <t>0,47; 3,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,99</t>
+          <t>-0,68; 2,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,13</t>
+          <t>1,31; 3,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,14</t>
+          <t>0,41; 2,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,13</t>
+          <t>-0,87; 1,24</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,7; 63,42</t>
+          <t>14,77; 59,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 35,82</t>
+          <t>-5,47; 33,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 17,97</t>
+          <t>-27,06; 16,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,67; 55,7</t>
+          <t>9,01; 55,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,02; 56,92</t>
+          <t>6,7; 54,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 34,32</t>
+          <t>-9,6; 34,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,14; 49,64</t>
+          <t>18,36; 50,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,48; 33,54</t>
+          <t>5,62; 35,92</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 17,62</t>
+          <t>-12,1; 20,72</t>
         </is>
       </c>
     </row>
